--- a/teaching/traditional_assets/database/data/argentina/argentina_shoe.xlsx
+++ b/teaching/traditional_assets/database/data/argentina/argentina_shoe.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.186</v>
+        <v>0.0582</v>
       </c>
       <c r="G2">
-        <v>0.294017094017094</v>
+        <v>0.2593175853018373</v>
       </c>
       <c r="H2">
-        <v>0.294017094017094</v>
+        <v>0.2593175853018373</v>
       </c>
       <c r="I2">
-        <v>0.2307692307692308</v>
+        <v>-0.07769028871391076</v>
       </c>
       <c r="J2">
-        <v>0.2307692307692308</v>
+        <v>-0.07769028871391076</v>
       </c>
       <c r="K2">
-        <v>-5.26</v>
+        <v>-5.12</v>
       </c>
       <c r="L2">
-        <v>-0.08991452991452992</v>
+        <v>-0.1343832020997375</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,70 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="V2">
-        <v>0.07046413502109705</v>
+        <v>0.08513513513513513</v>
       </c>
       <c r="W2">
-        <v>-0.4046153846153846</v>
+        <v>-0.2828729281767955</v>
       </c>
       <c r="X2">
-        <v>0.1879957646587686</v>
+        <v>0.2482054432321119</v>
       </c>
       <c r="Y2">
-        <v>-0.5926111492741533</v>
+        <v>-0.5310783714089075</v>
       </c>
       <c r="Z2">
-        <v>1.59604943660819</v>
+        <v>1.385908115383216</v>
       </c>
       <c r="AA2">
-        <v>0.3683191007557363</v>
+        <v>-0.107671601615074</v>
       </c>
       <c r="AB2">
-        <v>0.1529007649921126</v>
+        <v>0.1845895865242348</v>
       </c>
       <c r="AC2">
-        <v>0.2154183357636237</v>
+        <v>-0.2922611881393088</v>
       </c>
       <c r="AD2">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="AG2">
-        <v>9.630000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="AH2">
-        <v>0.3228571428571429</v>
+        <v>0.408</v>
       </c>
       <c r="AI2">
-        <v>0.3843537414965986</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="AJ2">
-        <v>0.288928892889289</v>
+        <v>0.3765796124684077</v>
       </c>
       <c r="AK2">
-        <v>0.3472773169852145</v>
+        <v>0.4093406593406593</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM2">
-        <v>-0.948</v>
+        <v>1.9</v>
       </c>
       <c r="AN2">
-        <v>0.743421052631579</v>
+        <v>-5.666666666666666</v>
+      </c>
+      <c r="AO2">
+        <v>-1.557894736842105</v>
       </c>
       <c r="AP2">
-        <v>0.6335526315789475</v>
+        <v>-4.966666666666666</v>
       </c>
       <c r="AQ2">
-        <v>-14.24050632911393</v>
+        <v>-1.557894736842105</v>
       </c>
     </row>
     <row r="3">
@@ -716,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.186</v>
+        <v>0.0582</v>
       </c>
       <c r="G3">
-        <v>0.294017094017094</v>
+        <v>0.2593175853018373</v>
       </c>
       <c r="H3">
-        <v>0.294017094017094</v>
+        <v>0.2593175853018373</v>
       </c>
       <c r="I3">
-        <v>0.2307692307692308</v>
+        <v>-0.07769028871391076</v>
       </c>
       <c r="J3">
-        <v>0.2307692307692308</v>
+        <v>-0.07769028871391076</v>
       </c>
       <c r="K3">
-        <v>-5.26</v>
+        <v>-5.12</v>
       </c>
       <c r="L3">
-        <v>-0.08991452991452992</v>
+        <v>-0.1343832020997375</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -758,70 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="V3">
-        <v>0.07046413502109705</v>
+        <v>0.08513513513513513</v>
       </c>
       <c r="W3">
-        <v>-0.4046153846153846</v>
+        <v>-0.2828729281767955</v>
       </c>
       <c r="X3">
-        <v>0.1879957646587686</v>
+        <v>0.2482054432321119</v>
       </c>
       <c r="Y3">
-        <v>-0.5926111492741533</v>
+        <v>-0.5310783714089075</v>
       </c>
       <c r="Z3">
-        <v>1.59604943660819</v>
+        <v>1.385908115383216</v>
       </c>
       <c r="AA3">
-        <v>0.3683191007557363</v>
+        <v>-0.107671601615074</v>
       </c>
       <c r="AB3">
-        <v>0.1529007649921126</v>
+        <v>0.1845895865242348</v>
       </c>
       <c r="AC3">
-        <v>0.2154183357636237</v>
+        <v>-0.2922611881393088</v>
       </c>
       <c r="AD3">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="AG3">
-        <v>9.630000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="AH3">
-        <v>0.3228571428571429</v>
+        <v>0.408</v>
       </c>
       <c r="AI3">
-        <v>0.3843537414965986</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="AJ3">
-        <v>0.288928892889289</v>
+        <v>0.3765796124684077</v>
       </c>
       <c r="AK3">
-        <v>0.3472773169852145</v>
+        <v>0.4093406593406593</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM3">
-        <v>-0.948</v>
+        <v>1.9</v>
       </c>
       <c r="AN3">
-        <v>0.743421052631579</v>
+        <v>-5.666666666666666</v>
+      </c>
+      <c r="AO3">
+        <v>-1.557894736842105</v>
       </c>
       <c r="AP3">
-        <v>0.6335526315789475</v>
+        <v>-4.966666666666666</v>
       </c>
       <c r="AQ3">
-        <v>-14.24050632911393</v>
+        <v>-1.557894736842105</v>
       </c>
     </row>
   </sheetData>
